--- a/books.xlsx
+++ b/books.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobsteffen/Library/CloudStorage/Dropbox/Academic/BYU/Teaching/IS 303/Individual Sections Class Practice/Winter 2025 - Section 1/cp16-databases-and-orm/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95C74E2-B564-724C-9CAE-E1B69C0C148E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Non-Normalized Data" sheetId="1" r:id="rId1"/>
     <sheet name="Authors" sheetId="2" r:id="rId2"/>
     <sheet name="Books" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -159,8 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,13 +229,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,7 +281,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -301,6 +315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -335,9 +350,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,14 +526,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -551,7 +576,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -568,7 +593,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -585,7 +610,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -602,7 +627,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -619,7 +644,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -636,7 +661,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -653,7 +678,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -670,7 +695,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -687,7 +712,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -704,7 +729,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -721,7 +746,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -738,7 +763,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -755,7 +780,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -772,7 +797,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -789,7 +814,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -806,7 +831,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -823,7 +848,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -840,7 +865,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -857,7 +882,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -874,7 +899,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -891,7 +916,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -908,7 +933,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -925,7 +950,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -942,7 +967,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -959,7 +984,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -976,7 +1001,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -993,7 +1018,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1035,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1027,7 +1052,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1050,14 +1075,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1068,7 +1099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1079,7 +1110,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1090,7 +1121,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1101,7 +1132,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1112,7 +1143,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1129,14 +1160,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1153,7 +1193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1170,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1187,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1204,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1221,7 +1261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1238,7 +1278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1255,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1272,7 +1312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1289,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1306,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1323,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1340,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1357,7 +1397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1374,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1391,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1408,7 +1448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1425,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1442,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1459,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1476,7 +1516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1493,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1510,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1527,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1544,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1561,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1578,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1595,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1612,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1629,7 +1669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1646,7 +1686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
